--- a/bots/crawl_ch/output/office_coop_2022-07-31.xlsx
+++ b/bots/crawl_ch/output/office_coop_2022-07-31.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -2966,65 +2966,47 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3268661</t>
+          <t>5043600</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Scotch® Crystal Tape</t>
+          <t>Qualité&amp;amp;Prix Verpackungsband transparent 38 mm x 66 m</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-crystal-tape/p/3268661</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-verpackungsband-transparent-38-mm-x-66-m/p/5043600</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1.60/1ST</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
@@ -3032,52 +3014,70 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Scotch® Crystal Tape 3.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Verpackungsband transparent 38 mm x 66 m 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5043600</t>
+          <t>3268661</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Verpackungsband transparent 38 mm x 66 m</t>
+          <t>Scotch® Crystal Tape</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-verpackungsband-transparent-38-mm-x-66-m/p/5043600</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/scotch-crystal-tape/p/3268661</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1.60/1ST</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
@@ -3085,12 +3085,12 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Verpackungsband transparent 38 mm x 66 m 1.95 Schweizer Franken</t>
+          <t>Scotch® Crystal Tape 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -3898,84 +3898,102 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6876715</t>
+          <t>3268660</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label</t>
+          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/scotch-crystal-6-1925r-klebeband-ersatzrolle-19-mm-x-25-m/p/3268660</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>500BLT</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
+          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4911656</t>
+          <t>6876715</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
+          <t>Canon Kopierpapier Black Label</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/papier/canon-kopierpapier-black-label/p/6876715</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>500BLT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3984,206 +4002,188 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pattex</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1.83/1ST</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'papier']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
+          <t>Canon Kopierpapier Black Label 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4638648</t>
+          <t>4911656</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm)</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/pattex-sekunden-kleber-ultra-gel-mini-3-stueck/p/4911656</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pritt</t>
+          <t>Pattex</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1.83/1ST</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
+          <t>Pattex Sekunden-Kleber Ultra Gel Mini 3 Stück 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3267180</t>
+          <t>4638648</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bostitch Heftklammern SB8</t>
+          <t>PRITT Klebestift (80 mm)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/bostitch-heftklammern-sb8/p/3267180</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/pritt-klebestift-80-mm/p/4638648</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
         <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bostitch</t>
+          <t>Pritt</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2.10/1ST</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Bostitch Heftklammern SB8 2.10 Schweizer Franken</t>
+          <t>PRITT Klebestift (80 mm) 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3887746</t>
+          <t>3267180</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Combi Plast 720 2 Stück</t>
+          <t>Bostitch Heftklammern SB8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-combi-plast-720-2-stueck/p/3887746</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/bostitch-heftklammern-sb8/p/3267180</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Läufer</t>
+          <t>Bostitch</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1.05/1ST</t>
+          <t>2.10/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4213,58 +4213,60 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Läufer Radiergummi Combi Plast 720 2 Stück 2.10 Schweizer Franken</t>
+          <t>Bostitch Heftklammern SB8 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6350385</t>
+          <t>3887746</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk.</t>
+          <t>Läufer Radiergummi Combi Plast 720 2 Stück</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-30-stk/p/6350385</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/radiergummis/laeufer-radiergummi-combi-plast-720-2-stueck/p/3887746</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>30ST</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Läufer</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.11/1ST</t>
+          <t>1.05/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4274,7 +4276,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4284,90 +4286,88 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'radiergummis']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk. 3.20 Schweizer Franken</t>
+          <t>Läufer Radiergummi Combi Plast 720 2 Stück 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3268660</t>
+          <t>6350385</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/scotch-crystal-6-1925r-klebeband-ersatzrolle-19-mm-x-25-m/p/3268660</t>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/c5-und-c6/qualite-prix-kuvert-c5-30-stk/p/6350385</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>30ST</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>0.11/1ST</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Scotch</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'c5-und-c6']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Scotch Crystal 6-1925R Klebeband Ersatzrolle 19 mm x 25 m 3.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert C5 30  Stk. 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6470,7 +6470,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -6897,231 +6897,209 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3268615</t>
+          <t>3823035</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tipp-Ex Rapid Korrektur-Fluid 1 Stück</t>
+          <t>Ringbuch A4 2-Ring transparent</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/tipp-ex-rapid-korrektur-fluid-1-stueck/p/3268615</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/ringbuch-a4-2-ring-transparent/p/3823035</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Tipp-Ex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>3.35/1ST</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Tipp-Ex Rapid Korrektur-Fluid 1 Stück 3.35 Schweizer Franken</t>
+          <t>Ringbuch A4 2-Ring transparent 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3556665</t>
+          <t>3268615</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau</t>
+          <t>Tipp-Ex Rapid Korrektur-Fluid 1 Stück</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/adoc-notizheft-pap-ex-a6-2044104-kariert-blau/p/3556665</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/tipp-ex-rapid-korrektur-fluid-1-stueck/p/3268615</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ADOC</t>
+          <t>Tipp-Ex</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>3.35/1ST</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau 5.95 Schweizer Franken</t>
+          <t>Tipp-Ex Rapid Korrektur-Fluid 1 Stück 3.35 Schweizer Franken</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>4671290</t>
+          <t>3556665</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my</t>
+          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-zeigetaschen-a4-100my/p/4671290</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/adoc-notizheft-pap-ex-a6-2044104-kariert-blau/p/3556665</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>ADOC</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>0.20/1ST</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my - Online kein Bestand 1.95 Schweizer Franken</t>
+          <t>ADOC Notizheft Pap-Ex A6 2044.104 kariert blau 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3267169</t>
+          <t>4671290</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Selbstklebe Etiketten 90  Stk.</t>
+          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-selbstklebe-etiketten-90-stk/p/3267169</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-zeigetaschen-a4-100my/p/4671290</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>90ST</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -7135,7 +7113,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.02/1ST</t>
+          <t>0.20/1ST</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7145,7 +7123,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -7155,40 +7133,46 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Selbstklebe Etiketten 90  Stk. 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Zeigetaschen A4 100my - Online kein Bestand 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3823035</t>
+          <t>3267169</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ringbuch A4 2-Ring transparent</t>
+          <t>Qualité&amp;amp;Prix Selbstklebe Etiketten 90  Stk.</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/ringbuch-a4-2-ring-transparent/p/3823035</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-selbstklebe-etiketten-90-stk/p/3267169</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>90ST</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -7197,26 +7181,42 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0.02/1ST</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>Ringbuch A4 2-Ring transparent 3.80 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Selbstklebe Etiketten 90  Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8195,121 +8195,121 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>3667821</t>
+          <t>4011629</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen schwarz 3 Stück</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-register-pp-a4-grau-a-z/p/3667821</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-schwarz-3-stueck/p/4011629</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>3ST</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Pilot</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>3.17/1ST</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>2</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>3.50/1ST</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z 3.50 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen schwarz 3 Stück 9.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3353543</t>
+          <t>3667821</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>STABILO Folienschreiber OHPen permanent fein 4er Etui</t>
+          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-folienschreiber-ohpen-permanent-fein-4er-etui/p/3353543</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-register-pp-a4-grau-a-z/p/3667821</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.50/1ST</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -8329,161 +8329,161 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>STABILO Folienschreiber OHPen permanent fein 4er Etui 7.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Register PP A4 grau A-Z 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>6294311</t>
+          <t>3353543</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HP 3JB05AE Combopack 304 BK/color</t>
+          <t>STABILO Folienschreiber OHPen permanent fein 4er Etui</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-3jb05ae-combopack-304-bkcolor/p/6294311</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/umzugswochen/stabilo-folienschreiber-ohpen-permanent-fein-4er-etui/p/3353543</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>27.95</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'umzugswochen']</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>HP 3JB05AE Combopack 304 BK/color 27.95 Schweizer Franken</t>
+          <t>STABILO Folienschreiber OHPen permanent fein 4er Etui 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3667745</t>
+          <t>6294311</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 6-tlg</t>
+          <t>HP 3JB05AE Combopack 304 BK/color</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-6-tlg/p/3667745</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-3jb05ae-combopack-304-bkcolor/p/6294311</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>1.25/1ST</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>27.95</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>Oecoplan Kartonregister A4 6-tlg 2.50 Schweizer Franken</t>
+          <t>HP 3JB05AE Combopack 304 BK/color 27.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>4011629</t>
+          <t>3667745</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen schwarz 3 Stück</t>
+          <t>Oecoplan Kartonregister A4 6-tlg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-ersatz-minen-schwarz-3-stueck/p/4011629</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/oecoplan-kartonregister-a4-6-tlg/p/3667745</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>3ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -8492,17 +8492,17 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>3.17/1ST</t>
+          <t>1.25/1ST</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8522,17 +8522,17 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Ersatz-Minen schwarz 3 Stück 9.50 Schweizer Franken</t>
+          <t>Oecoplan Kartonregister A4 6-tlg 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9601,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10084,7 +10084,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -10653,32 +10653,30 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>4039616</t>
+          <t>4039534</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Spiralheft A4 9mm liniert ohne Rahmen</t>
+          <t>Qualité&amp;amp;Prix Schulhefte A4 9mm liniert ohne Rahmen 2 Stk.</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/spiralheft-a4-9mm-liniert-ohne-rahmen/p/4039616</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-a4-9mm-liniert-ohne-rahmen-2-stk/p/4039534</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="n">
-        <v>1</v>
-      </c>
+      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -10701,44 +10699,46 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>Spiralheft A4 9mm liniert ohne Rahmen 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Schulhefte A4 9mm liniert ohne Rahmen 2 Stk. 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7019190</t>
+          <t>4039616</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set 5cm weiss 3 Stück</t>
+          <t>Spiralheft A4 9mm liniert ohne Rahmen</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set-5cm-weiss-3-stueck/p/7019190</t>
+          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/spiralheft-a4-9mm-liniert-ohne-rahmen/p/4039616</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Esselte</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I158" t="inlineStr"/>
@@ -10747,117 +10747,97 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>Esselte Ordner Set 5cm weiss 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
+          <t>Spiralheft A4 9mm liniert ohne Rahmen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3740303</t>
+          <t>7019190</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Heftklammern no.10 2000 Stück</t>
+          <t>Esselte Ordner Set 5cm weiss 3 Stück</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/heftklammern-no10-2000-stueck/p/3740303</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/ordner/esselte-ordner-set-5cm-weiss-3-stueck/p/7019190</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Esselte</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>1.10/1ST</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'ordner']</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>Heftklammern no.10 2000 Stück 1.10 Schweizer Franken</t>
+          <t>Esselte Ordner Set 5cm weiss 3 Stück 33% Aktion 6.95 Schweizer Franken statt 10.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4671243</t>
+          <t>3740303</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Dokumententaschen A4 150 my</t>
+          <t>Heftklammern no.10 2000 Stück</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-dokumententaschen-a4-150-my/p/4671243</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/heftklammern-no10-2000-stueck/p/3740303</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -10866,12 +10846,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.60/1ST</t>
+          <t>1.10/1ST</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10881,7 +10861,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
@@ -10891,39 +10871,39 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 10 Dokumententaschen A4 150 my 5.95 Schweizer Franken</t>
+          <t>Heftklammern no.10 2000 Stück 1.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3667784</t>
+          <t>4671243</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg</t>
+          <t>Qualité&amp;amp;Prix 10 Dokumententaschen A4 150 my</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-weiss-a4-12-tlg/p/3667784</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-10-dokumententaschen-a4-150-my/p/4671243</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -10937,12 +10917,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>3.25/1ST</t>
+          <t>0.60/1ST</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10952,7 +10932,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -10962,37 +10942,41 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg 3.25 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 10 Dokumententaschen A4 150 my 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5728784</t>
+          <t>3667784</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Sammelmappe blau</t>
+          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-sammelmappe-blau/p/5728784</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-weiss-a4-12-tlg/p/3667784</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="n">
         <v>0</v>
@@ -11004,43 +10988,59 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>3.25/1ST</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Sammelmappe blau 1.75 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kartonregister weiss A4 12-tlg 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4039534</t>
+          <t>5728784</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte A4 9mm liniert ohne Rahmen 2 Stk.</t>
+          <t>Qualité&amp;amp;Prix Sammelmappe blau</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/papier-bloecke-hefte/hefte/qualite-prix-schulhefte-a4-9mm-liniert-ohne-rahmen-2-stk/p/4039534</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-sammelmappe-blau/p/5728784</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
@@ -11064,17 +11064,17 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'papier-bloecke-hefte', 'hefte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Schulhefte A4 9mm liniert ohne Rahmen 2 Stk. 2.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Sammelmappe blau 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11357,7 +11357,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11459,7 +11459,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11900,7 +11900,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12390,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12492,7 +12492,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12667,7 +12667,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -12860,24 +12860,24 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3844998</t>
+          <t>3670696</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Seidenpapier grün 50x70cm 25 Stück</t>
+          <t>Qualité&amp;amp;Prix Ringbuch-Block A4 kariert 1 Stk.</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-gruen-50x70cm-25-stueck/p/3844998</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-ringbuch-block-a4-kariert-1-stk/p/3670696</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
@@ -12901,234 +12901,214 @@
       <c r="L194" t="inlineStr"/>
       <c r="M194" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>Seidenpapier grün 50x70cm 25 Stück 4.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Ringbuch-Block A4 kariert 1 Stk. 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4639638</t>
+          <t>3844998</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Uhu Patafix Kleber transparent 56 Stück</t>
+          <t>Seidenpapier grün 50x70cm 25 Stück</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-patafix-kleber-transparent-56-stueck/p/4639638</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>56ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/geschenkverpackung-baender/geschenkpapier/seidenpapier-gruen-50x70cm-25-stueck/p/3844998</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
         <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Uhu</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>0.08/1ST</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'geschenkverpackung-baender', 'geschenkpapier']</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>Uhu Patafix Kleber transparent 56 Stück 4.20 Schweizer Franken</t>
+          <t>Seidenpapier grün 50x70cm 25 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4064738</t>
+          <t>4639638</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz</t>
+          <t>Uhu Patafix Kleber transparent 56 Stück</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/kleber/uhu-patafix-kleber-transparent-56-stueck/p/4639638</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>56ST</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Epson</t>
+          <t>Uhu</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'kleber']</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
+          <t>Uhu Patafix Kleber transparent 56 Stück 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>3353383</t>
+          <t>4064738</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Edding 500 Permanentmarker schwarz</t>
+          <t>CANON Patrone PGI-525 schwarz</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/edding-500-permanentmarker-schwarz/p/3353383</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-patrone-pgi-525-schwarz/p/4064738</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Edding</t>
+          <t>Epson</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>Edding 500 Permanentmarker schwarz 4.95 Schweizer Franken</t>
+          <t>CANON Patrone PGI-525 schwarz 21.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>3890418</t>
+          <t>3353383</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern metallic 26 mm 150  Stk.</t>
+          <t>Edding 500 Permanentmarker schwarz</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-bueroklammern-metallic-26-mm-150-stk/p/3890418</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/edding-500-permanentmarker-schwarz/p/3353383</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>150ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -13137,17 +13117,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Edding</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.01/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13157,7 +13137,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -13167,39 +13147,39 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern metallic 26 mm 150  Stk. 1.95 Schweizer Franken</t>
+          <t>Edding 500 Permanentmarker schwarz 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>3625270</t>
+          <t>3890418</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ersatzklotz weiss 750 Blatt</t>
+          <t>Qualité&amp;amp;Prix Büroklammern metallic 26 mm 150  Stk.</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/notizzettel/qualite-prix-ersatzklotz-weiss-750-blatt/p/3625270</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-bueroklammern-metallic-26-mm-150-stk/p/3890418</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>750ST</t>
+          <t>150ST</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -13213,7 +13193,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13238,39 +13218,39 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'notizzettel']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ersatzklotz weiss 750 Blatt 5.50 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Büroklammern metallic 26 mm 150  Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>3890590</t>
+          <t>3625270</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Reissnägel weiss 200 Stk.</t>
+          <t>Qualité&amp;amp;Prix Ersatzklotz weiss 750 Blatt</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-reissnaegel-weiss-200-stk/p/3890590</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/notizzettel/qualite-prix-ersatzklotz-weiss-750-blatt/p/3625270</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>200ST</t>
+          <t>750ST</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
@@ -13284,7 +13264,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13309,37 +13289,41 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'notizzettel']</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Reissnägel weiss 200 Stk. 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Ersatzklotz weiss 750 Blatt 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>3670696</t>
+          <t>3890590</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ringbuch-Block A4 kariert 1 Stk.</t>
+          <t>Qualité&amp;amp;Prix Reissnägel weiss 200 Stk.</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/buerobedarf/qualite-prix-ringbuch-block-a4-kariert-1-stk/p/3670696</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-reissnaegel-weiss-200-stk/p/3890590</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>200ST</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
         <v>0</v>
@@ -13351,26 +13335,42 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>0.01/1ST</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'buerobedarf']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Ringbuch-Block A4 kariert 1 Stk. 4.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Reissnägel weiss 200 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13751,7 +13751,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13804,7 +13804,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13928,7 +13928,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14136,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14207,7 +14207,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -14972,7 +14972,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15196,7 +15196,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15349,7 +15349,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15453,7 +15453,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15524,7 +15524,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15648,7 +15648,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15865,7 +15865,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15918,7 +15918,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16040,7 +16040,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16144,7 +16144,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16432,7 +16432,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16505,7 +16505,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16660,7 +16660,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16731,7 +16731,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16802,7 +16802,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17070,7 +17070,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17194,7 +17194,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17411,7 +17411,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17482,7 +17482,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17708,7 +17708,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17759,7 +17759,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17863,7 +17863,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17934,7 +17934,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18182,7 +18182,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18324,7 +18324,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18395,7 +18395,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18446,7 +18446,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18517,7 +18517,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18712,7 +18712,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18854,7 +18854,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -18927,29 +18927,29 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>3424785</t>
+          <t>3890594</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>STABILO Fasermaler Pen 68 10er Etui</t>
+          <t>Qualité&amp;amp;Prix Pinnadeln weiss 40 Stk.</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-fasermaler-pen-68-10er-etui/p/3424785</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-pinnadeln-weiss-40-stk/p/3890594</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -18958,17 +18958,17 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Stabilo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1.20/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -18988,85 +18988,105 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>STABILO Fasermaler Pen 68 10er Etui 11.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Pinnadeln weiss 40 Stk. 1.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>4949112</t>
+          <t>3424785</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>CANON LS270H Taschenrechner</t>
+          <t>STABILO Fasermaler Pen 68 10er Etui</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/canon-ls270h-taschenrechner/p/4949112</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/filzstifte/stabilo-fasermaler-pen-68-10er-etui/p/3424785</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>10ST</t>
+        </is>
+      </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
         <v>0</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Stabilo</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>1.20/1ST</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'filzstifte']</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>CANON LS270H Taschenrechner 9.95 Schweizer Franken</t>
+          <t>STABILO Fasermaler Pen 68 10er Etui 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>6672207</t>
+          <t>4949112</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE</t>
+          <t>CANON LS270H Taschenrechner</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-combopack-903-cmybk-6zc73ae/p/6672207</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/canon-ls270h-taschenrechner/p/4949112</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
@@ -19076,12 +19096,12 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>54.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I295" t="inlineStr"/>
@@ -19090,165 +19110,161 @@
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE 54.95 Schweizer Franken</t>
+          <t>CANON LS270H Taschenrechner 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>4353536</t>
+          <t>6672207</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift schwarz</t>
+          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-stift-schwarz/p/4353536</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-druckerpatrone-combopack-903-cmybk-6zc73ae/p/6672207</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Pilot</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I296" t="inlineStr">
-        <is>
-          <t>4.70/1ST</t>
-        </is>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>54.95</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>Pilot Tintenroller Frixion Ball Stift schwarz 4.70 Schweizer Franken</t>
+          <t>HP Druckerpatrone Combopack 903 CMYBK 6ZC73AE 54.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>5728787</t>
+          <t>4353536</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 20 Ersatztaschen</t>
+          <t>Pilot Tintenroller Frixion Ball Stift schwarz</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-20-ersatztaschen/p/5728787</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-tintenroller-frixion-ball-stift-schwarz/p/4353536</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1</v>
+      </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>4.70/1ST</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix 20 Ersatztaschen 2.95 Schweizer Franken</t>
+          <t>Pilot Tintenroller Frixion Ball Stift schwarz 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>3890443</t>
+          <t>5728787</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
+          <t>Qualité&amp;amp;Prix 20 Ersatztaschen</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>150ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-20-ersatztaschen/p/5728787</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="n">
         <v>0</v>
@@ -19260,62 +19276,50 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I298" t="inlineStr">
-        <is>
-          <t>0.01/1ST</t>
-        </is>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix 20 Ersatztaschen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>5728636</t>
+          <t>3890443</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Dokumententasche transparent</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-dokumententasche-transparent/p/5728636</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/bueroklammern/qualite-prix-bueroklammern-farbig-26-mm-150-stk/p/3890443</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>150ST</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="n">
         <v>0</v>
@@ -19327,51 +19331,65 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>0.01/1ST</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'bueroklammern']</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Dokumententasche transparent 1.20 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Büroklammern farbig 26 mm 150 Stk. 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4123855</t>
+          <t>5728636</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Handabroller 50mm rot</t>
+          <t>Qualité&amp;amp;Prix Dokumententasche transparent</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-handabroller-50mm-rot/p/4123855</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/qualite-prix-dokumententasche-transparent/p/5728636</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
-      <c r="E300" t="n">
-        <v>4</v>
-      </c>
+      <c r="E300" t="inlineStr"/>
       <c r="F300" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -19380,7 +19398,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="I300" t="inlineStr"/>
@@ -19389,46 +19407,42 @@
       <c r="L300" t="inlineStr"/>
       <c r="M300" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Handabroller 50mm rot 9.95 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Dokumententasche transparent 1.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>6350515</t>
+          <t>4123855</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert B4 8  Stk.</t>
+          <t>Qualité&amp;amp;Prix Handabroller 50mm rot</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/qualite-prix-kuvert-b4-8-stk/p/6350515</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>8ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/buero-papeterie/kleber-schnur/klebeband/qualite-prix-handabroller-50mm-rot/p/4123855</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr"/>
       <c r="E301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F301" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -19437,127 +19451,133 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="I301" t="inlineStr">
-        <is>
-          <t>0.58/1ST</t>
-        </is>
-      </c>
-      <c r="J301" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'kleber-schnur', 'klebeband']</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kuvert B4 8  Stk. 4.60 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Handabroller 50mm rot 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>4638627</t>
+          <t>6350515</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Scotch School Schere 13cm</t>
+          <t>Qualité&amp;amp;Prix Kuvert B4 8  Stk.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-school-schere-13cm/p/4638627</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/qualite-prix-kuvert-b4-8-stk/p/6350515</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
       <c r="E302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F302" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Scotch</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>0.58/1ST</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts']</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>Scotch School Schere 13cm 6.80 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kuvert B4 8  Stk. 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6383885</t>
+          <t>4638627</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Bic Leuchtstift 5 Stück</t>
+          <t>Scotch School Schere 13cm</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/leuchtstifte/bic-leuchtstift-5-stueck/p/6383885</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/scotch-school-schere-13cm/p/4638627</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr"/>
+      <c r="E303" t="n">
+        <v>2</v>
+      </c>
       <c r="F303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Bic</t>
+          <t>Scotch</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="I303" t="inlineStr"/>
@@ -19566,51 +19586,49 @@
       <c r="L303" t="inlineStr"/>
       <c r="M303" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'leuchtstifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Bic Leuchtstift 5 Stück 4.50 Schweizer Franken</t>
+          <t>Scotch School Schere 13cm 6.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>4056141</t>
+          <t>6383885</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Biella Pult- und Ordnungmappe A4 A4 12-teilig mit Gummiband</t>
+          <t>Bic Leuchtstift 5 Stück</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/biella-pult-und-ordnungmappe-a4-a4-12-teilig-mit-gummiband/p/4056141</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/leuchtstifte/bic-leuchtstift-5-stueck/p/6383885</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
-      <c r="E304" t="n">
-        <v>2</v>
-      </c>
+      <c r="E304" t="inlineStr"/>
       <c r="F304" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Biella</t>
+          <t>Bic</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I304" t="inlineStr"/>
@@ -19619,49 +19637,51 @@
       <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'leuchtstifte']</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>Biella Pult- und Ordnungmappe A4 A4 12-teilig mit Gummiband 14.95 Schweizer Franken</t>
+          <t>Bic Leuchtstift 5 Stück 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>6294241</t>
+          <t>4056141</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Canon Tintenpatrone PGI-581XL cyan</t>
+          <t>Biella Pult- und Ordnungmappe A4 A4 12-teilig mit Gummiband</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-tintenpatrone-pgi-581xl-cyan/p/6294241</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/biella-pult-und-ordnungmappe-a4-a4-12-teilig-mit-gummiband/p/4056141</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
-      <c r="E305" t="inlineStr"/>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
       <c r="F305" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Canon</t>
+          <t>Biella</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I305" t="inlineStr"/>
@@ -19670,51 +19690,49 @@
       <c r="L305" t="inlineStr"/>
       <c r="M305" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>Canon Tintenpatrone PGI-581XL cyan 17.95 Schweizer Franken</t>
+          <t>Biella Pult- und Ordnungmappe A4 A4 12-teilig mit Gummiband 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>6029277</t>
+          <t>6294241</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EPSON Multi Tinte CMYBKXP-235/335/435</t>
+          <t>Canon Tintenpatrone PGI-581XL cyan</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/epson/epson-multi-tinte-cmybkxp-235335435/p/6029277</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/canon/canon-tintenpatrone-pgi-581xl-cyan/p/6294241</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
-      <c r="E306" t="n">
-        <v>1</v>
-      </c>
+      <c r="E306" t="inlineStr"/>
       <c r="F306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Epson</t>
+          <t>Canon</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="I306" t="inlineStr"/>
@@ -19723,34 +19741,34 @@
       <c r="L306" t="inlineStr"/>
       <c r="M306" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'epson']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'canon']</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>EPSON Multi Tinte CMYBKXP-235/335/435 49.95 Schweizer Franken</t>
+          <t>Canon Tintenpatrone PGI-581XL cyan 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>6467309</t>
+          <t>6029277</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Ereigniskarte Geburtstag (französisch)</t>
+          <t>EPSON Multi Tinte CMYBKXP-235/335/435</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-geburtstag-franzoesisch/p/6467309</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/epson/epson-multi-tinte-cmybkxp-235335435/p/6029277</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -19758,16 +19776,16 @@
         <v>1</v>
       </c>
       <c r="F307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Epson</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
@@ -19776,164 +19794,164 @@
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'epson']</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>Ereigniskarte Geburtstag (französisch) 5.50 Schweizer Franken</t>
+          <t>EPSON Multi Tinte CMYBKXP-235/335/435 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>4030351</t>
+          <t>6467309</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Giotto Wachskreiden Maxi 12er Set</t>
+          <t>Ereigniskarte Geburtstag (französisch)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/fingerfarben-malkasten/giotto-wachskreiden-maxi-12er-set/p/4030351</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/karten-kuverts/karten/ereigniskarte-geburtstag-franzoesisch/p/6467309</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="n">
+        <v>1</v>
+      </c>
       <c r="F308" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Giotto</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I308" t="inlineStr">
-        <is>
-          <t>0.58/1ST</t>
-        </is>
-      </c>
-      <c r="J308" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'fingerfarben-malkasten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'karten-kuverts', 'karten']</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>Giotto Wachskreiden Maxi 12er Set 6.95 Schweizer Franken</t>
+          <t>Ereigniskarte Geburtstag (französisch) 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>4906002</t>
+          <t>4030351</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>HP Patrone 62 color C2P06AE</t>
+          <t>Giotto Wachskreiden Maxi 12er Set</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-62-color-c2p06ae/p/4906002</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/fingerfarben-malkasten/giotto-wachskreiden-maxi-12er-set/p/4030351</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>12ST</t>
+        </is>
+      </c>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
         <v>0</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Giotto</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>27.95</t>
-        </is>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>0.58/1ST</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'fingerfarben-malkasten']</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>HP Patrone 62 color C2P06AE 27.95 Schweizer Franken</t>
+          <t>Giotto Wachskreiden Maxi 12er Set 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6028950</t>
+          <t>4906002</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 903XL cyan OfficeJet</t>
+          <t>HP Patrone 62 color C2P06AE</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-903xl-cyan-officejet/p/6028950</t>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-patrone-62-color-c2p06ae/p/4906002</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
-      <c r="E310" t="n">
-        <v>2</v>
-      </c>
+      <c r="E310" t="inlineStr"/>
       <c r="F310" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -19942,7 +19960,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>22.95</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="I310" t="inlineStr"/>
@@ -19956,105 +19974,87 @@
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>HP Tintenpatrone 903XL cyan OfficeJet 22.95 Schweizer Franken</t>
+          <t>HP Patrone 62 color C2P06AE 27.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>3476606</t>
+          <t>6028950</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Känguruhtasche 5 Stück</t>
+          <t>HP Tintenpatrone 903XL cyan OfficeJet</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/kaenguruhtasche-5-stueck/p/3476606</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>5ST</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr"/>
+          <t>/de/haushalt-tier/buero-papeterie/druckerpatronen/hp/hp-tintenpatrone-903xl-cyan-officejet/p/6028950</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I311" t="inlineStr">
-        <is>
-          <t>1.19/1ST</t>
-        </is>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'druckerpatronen', 'hp']</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>Känguruhtasche 5 Stück 5.95 Schweizer Franken</t>
+          <t>HP Tintenpatrone 903XL cyan OfficeJet 22.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4492526</t>
+          <t>3476606</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Karteikarten A8 liniert weiss 180g 200Bl</t>
+          <t>Känguruhtasche 5 Stück</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a8-liniert-weiss-180g-200bl/p/4492526</t>
+          <t>/de/haushalt-tier/buero-papeterie/mappen-huellen-planer/mappen/kaenguruhtasche-5-stueck/p/3476606</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>200ST</t>
+          <t>5ST</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -20068,12 +20068,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>0.01/1ST</t>
+          <t>1.19/1ST</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -20083,7 +20083,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -20093,161 +20093,161 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'mappen-huellen-planer', 'mappen']</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>Karteikarten A8 liniert weiss 180g 200Bl 2.40 Schweizer Franken</t>
+          <t>Känguruhtasche 5 Stück 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6776651</t>
+          <t>4492526</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Lochverstärkungsringe selbstklebend</t>
+          <t>Karteikarten A8 liniert weiss 180g 200Bl</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/lochverstaerkungsringe-selbstklebend/p/6776651</t>
+          <t>/de/haushalt-tier/buero-papeterie/notizzettel-karteikarten/karteikarten/karteikarten-a8-liniert-weiss-180g-200bl/p/4492526</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>500ST</t>
+          <t>200ST</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="n">
         <v>0</v>
       </c>
-      <c r="G313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>0.01/1ST</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'notizzettel-karteikarten', 'karteikarten']</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Lochverstärkungsringe selbstklebend 1.95 Schweizer Franken</t>
+          <t>Karteikarten A8 liniert weiss 180g 200Bl 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>4353535</t>
+          <t>6776651</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Pilot Frixion Clicker 0,7mm schwarz</t>
+          <t>Lochverstärkungsringe selbstklebend</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-clicker-07mm-schwarz/p/4353535</t>
+          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/lochverstaerkungsringe-selbstklebend/p/6776651</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>500ST</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="n">
         <v>0</v>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Pilot</t>
-        </is>
-      </c>
+      <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="I314" t="inlineStr">
-        <is>
-          <t>4.70/1ST</t>
-        </is>
-      </c>
-      <c r="J314" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>Pilot Frixion Clicker 0,7mm schwarz 4.70 Schweizer Franken</t>
+          <t>Lochverstärkungsringe selbstklebend 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>3268600</t>
+          <t>4353535</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Folienschreiber 4 Stk.</t>
+          <t>Pilot Frixion Clicker 0,7mm schwarz</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/qualite-prix-folienschreiber-4-stk/p/3268600</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/pilot-frixion-clicker-07mm-schwarz/p/4353535</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -20256,17 +20256,17 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pilot</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1.55/1ST</t>
+          <t>4.70/1ST</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -20291,34 +20291,34 @@
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Folienschreiber 4 Stk. 6.20 Schweizer Franken</t>
+          <t>Pilot Frixion Clicker 0,7mm schwarz 4.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>3667796</t>
+          <t>3268600</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z</t>
+          <t>Qualité&amp;amp;Prix Folienschreiber 4 Stk.</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-a4-extra-breit-a-z/p/3667796</t>
+          <t>/de/haushalt-tier/buero-papeterie/stifte-malfarben/weitere-stifte/qualite-prix-folienschreiber-4-stk/p/3268600</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
@@ -20332,12 +20332,12 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>4.60/1ST</t>
+          <t>1.55/1ST</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -20357,39 +20357,39 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'stifte-malfarben', 'weitere-stifte']</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z 4.60 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Folienschreiber 4 Stk. 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>3890594</t>
+          <t>3667796</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Pinnadeln weiss 40 Stk.</t>
+          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/buero-papeterie/bueromaterial/diverses/qualite-prix-pinnadeln-weiss-40-stk/p/3890594</t>
+          <t>/de/haushalt-tier/buero-papeterie/ordner-register/register/qualite-prix-kartonregister-a4-extra-breit-a-z/p/3667796</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
@@ -20403,12 +20403,12 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>4.60/1ST</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
@@ -20418,7 +20418,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -20428,17 +20428,17 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'buero-papeterie', 'bueromaterial', 'diverses']</t>
+          <t>['haushalt-tier', 'buero-papeterie', 'ordner-register', 'register']</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>Qualité&amp;amp;Prix Pinnadeln weiss 40 Stk. 1.70 Schweizer Franken</t>
+          <t>Qualité&amp;amp;Prix Kartonregister A4 extra-breit A-Z 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20489,7 +20489,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20560,7 +20560,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20717,7 +20717,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20768,7 +20768,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20839,7 +20839,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20890,7 +20890,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -20961,7 +20961,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21032,7 +21032,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21380,7 +21380,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21606,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21659,7 +21659,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21710,7 +21710,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21781,7 +21781,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21832,7 +21832,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21883,7 +21883,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22027,7 +22027,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22151,7 +22151,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22417,7 +22417,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22559,7 +22559,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22630,7 +22630,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22681,7 +22681,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22885,7 +22885,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -22987,7 +22987,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23040,7 +23040,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23091,7 +23091,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23144,7 +23144,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23195,7 +23195,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23246,7 +23246,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23297,7 +23297,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23452,7 +23452,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23503,7 +23503,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23554,7 +23554,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23605,7 +23605,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23656,7 +23656,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23758,7 +23758,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23860,7 +23860,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -23931,7 +23931,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24002,7 +24002,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24217,7 +24217,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24288,7 +24288,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24430,7 +24430,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24532,7 +24532,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24605,7 +24605,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24778,7 +24778,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24849,7 +24849,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -24951,7 +24951,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25002,7 +25002,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25053,7 +25053,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25104,7 +25104,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25206,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25257,7 +25257,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25308,7 +25308,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25412,7 +25412,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25463,7 +25463,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25514,7 +25514,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25585,7 +25585,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25636,7 +25636,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25687,7 +25687,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25758,7 +25758,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25829,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25882,7 +25882,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25933,7 +25933,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -25986,7 +25986,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26037,7 +26037,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26090,7 +26090,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26143,7 +26143,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26247,7 +26247,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26298,7 +26298,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26404,7 +26404,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26455,7 +26455,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26506,7 +26506,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26557,7 +26557,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26608,7 +26608,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26659,7 +26659,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26710,7 +26710,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26761,7 +26761,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26812,7 +26812,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26885,7 +26885,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27007,7 +27007,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27058,7 +27058,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27109,7 +27109,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27231,7 +27231,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27282,7 +27282,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27353,7 +27353,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27424,7 +27424,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27546,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27597,7 +27597,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27668,7 +27668,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27739,7 +27739,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27861,7 +27861,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27912,7 +27912,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -27965,7 +27965,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28036,7 +28036,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28178,7 +28178,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28249,7 +28249,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28302,7 +28302,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28424,7 +28424,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28495,7 +28495,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28546,7 +28546,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28597,7 +28597,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28668,7 +28668,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28810,7 +28810,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -28934,7 +28934,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29005,7 +29005,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29058,7 +29058,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29129,7 +29129,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29180,7 +29180,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29284,7 +29284,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29331,7 +29331,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29453,7 +29453,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29524,7 +29524,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29575,7 +29575,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29646,7 +29646,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29717,7 +29717,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
@@ -29768,7 +29768,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-07-31 07:00:42</t>
+          <t>2022-07-31 20:58:13</t>
         </is>
       </c>
     </row>
